--- a/src/main/resources/notepad/mysql/mysql锁.xlsx
+++ b/src/main/resources/notepad/mysql/mysql锁.xlsx
@@ -3,14 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69D082D-D221-464C-B5D8-C6CDD28F1B2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9D6560-0447-4E6E-8401-6B6E56035699}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3330" yWindow="3480" windowWidth="15593" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="笔记" sheetId="8" r:id="rId1"/>
-    <sheet name="表级锁（myisam、innoDB）" sheetId="5" r:id="rId2"/>
+    <sheet name="表级锁" sheetId="5" r:id="rId2"/>
+    <sheet name="隔离级别" sheetId="9" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">隔离级别!$A$1:$B$42</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="107">
   <si>
     <t>insert into testmysam value(4); #等待</t>
   </si>
@@ -249,17 +253,224 @@
     <t>事务</t>
   </si>
   <si>
-    <t>为什么需要事务？</t>
-  </si>
-  <si>
-    <t>只有innoDB的存储引擎支持事务</t>
+    <t>查看存储引擎</t>
+  </si>
+  <si>
+    <t>show engines;</t>
+  </si>
+  <si>
+    <t>show create table testinnodb;</t>
+  </si>
+  <si>
+    <t>事务的特性</t>
+  </si>
+  <si>
+    <t>原子性atomicity</t>
+  </si>
+  <si>
+    <t>要么全部成功，要么全部失败</t>
+  </si>
+  <si>
+    <t>一致性consistency</t>
+  </si>
+  <si>
+    <t>持久性durability</t>
+  </si>
+  <si>
+    <t>隔离性isolation</t>
+  </si>
+  <si>
+    <t>已提交读</t>
+  </si>
+  <si>
+    <t>未提交读</t>
+  </si>
+  <si>
+    <t>可重复读</t>
+  </si>
+  <si>
+    <t>可串行化</t>
+  </si>
+  <si>
+    <t>脏读</t>
+  </si>
+  <si>
+    <t>不可重复度</t>
+  </si>
+  <si>
+    <t>幻读</t>
+  </si>
+  <si>
+    <t>行数并没有增加</t>
+  </si>
+  <si>
+    <t>行数有变化</t>
+  </si>
+  <si>
+    <t>测试隔离级别</t>
+  </si>
+  <si>
+    <t>set SESSION TRANSACTION ISOLATION LEVEL read UNCOMMITTED;</t>
+  </si>
+  <si>
+    <t>START TRANSACTION</t>
+  </si>
+  <si>
+    <t>select * from testinnodb</t>
+  </si>
+  <si>
+    <t>UPDATE testinnodb set c1=999 where c2=1;</t>
+  </si>
+  <si>
+    <t>不可重复读</t>
+  </si>
+  <si>
+    <t>set SESSION TRANSACTION ISOLATION LEVEL read COMMITTED;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">select * from testinnodb  where c2=1  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t># 999</t>
+    </r>
+  </si>
+  <si>
+    <t>select * from testinnodb where c2=1   # 1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">select * from testinnodb where c2=1   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t># 1  解决了脏读</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">select * from testinnodb where c2=1   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> # 999 发生了脏读</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">select * from testinnodb where c2=1   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t># 999 发生了不可重复读</t>
+    </r>
+  </si>
+  <si>
+    <t>sessionA</t>
+  </si>
+  <si>
+    <t>sessionB</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">select * from testinnodb  where c2=1  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t># 1 解决了不可重复度。虽然sessionA提交，sessionB还是读取的原始数据</t>
+    </r>
+  </si>
+  <si>
+    <t>show variables like '%tx_isolation%';</t>
+  </si>
+  <si>
+    <t>COMMIT;</t>
+  </si>
+  <si>
+    <t>ROLLBACK;</t>
+  </si>
+  <si>
+    <t>新增，删除</t>
+  </si>
+  <si>
+    <t>查到10条数据</t>
+  </si>
+  <si>
+    <r>
+      <t>查到的数据条数变了。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>// 发生了幻读</t>
+    </r>
+  </si>
+  <si>
+    <t>串行化</t>
+  </si>
+  <si>
+    <t>set SESSION TRANSACTION ISOLATION LEVEL SERIALIZABLE;</t>
+  </si>
+  <si>
+    <t>insert into testinnodb value(3,'3',3); // 等待</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">执行成功 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>// 解决了幻读问题。</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,6 +497,29 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF029A31"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -418,10 +652,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -442,6 +677,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -457,9 +695,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -523,195 +765,6 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>205105</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="文本框 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38D1BDA2-EDB5-4CDB-B9A9-B95FDC37BB91}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="514350" y="12496800"/>
-          <a:ext cx="9720580" cy="1476375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-          <a:scene3d>
-            <a:camera prst="orthographicFront"/>
-            <a:lightRig rig="threePt" dir="t"/>
-          </a:scene3d>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="zh-CN"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="6E747A">
-                    <a:alpha val="43000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>现在的很多软件都是多用户，多程序，多线程的，对同一个表可能同时有很多人在用，为保持数据的一致性，所以提出了事务的概念。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="6E747A">
-                  <a:alpha val="43000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="6E747A">
-                    <a:alpha val="43000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>A 给B 要划钱，A 的账户-1000元， B 的账户就要+1000元，这两个update 语句必须作为一个整体来执行，不然A 扣钱了，B 没有加钱这种情况很难处理。</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1087,10 +1140,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6576981-1F06-4FF4-B8E4-3BC0F192BE95}">
-  <dimension ref="A1:T79"/>
+  <dimension ref="A1:T86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="Y80" sqref="Y80"/>
+    <sheetView topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="K91" sqref="K91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1530,12 +1583,90 @@
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="B79" t="s">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="C70" t="s">
         <v>65</v>
       </c>
     </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="C71" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="B73" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="C74" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="C76" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="C78" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="C80" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="81" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="D81" t="s">
+        <v>74</v>
+      </c>
+      <c r="H81" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="D82" t="s">
+        <v>73</v>
+      </c>
+      <c r="H82" t="s">
+        <v>78</v>
+      </c>
+      <c r="L82" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="D83" t="s">
+        <v>75</v>
+      </c>
+      <c r="H83" t="s">
+        <v>79</v>
+      </c>
+      <c r="L83" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="D84" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="86" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="D86" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D86" location="隔离级别!A1" display="测试隔离级别" xr:uid="{9E1E19B5-9F80-47C9-B5B8-C95903851D4C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -1546,8 +1677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F0269DB-1A2F-484B-9959-BF3E4700C0F4}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:D17"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1559,106 +1690,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15" t="s">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="15"/>
+      <c r="D16" s="16"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
@@ -1798,4 +1929,302 @@
   </colBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20B20264-8070-400D-8788-658437BBAF6A}">
+  <dimension ref="A1:B40"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="87.265625" customWidth="1"/>
+    <col min="2" max="2" width="94.86328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="16"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="16"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="16"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B28" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="16"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A17:B17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/main/resources/notepad/mysql/mysql锁.xlsx
+++ b/src/main/resources/notepad/mysql/mysql锁.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9D6560-0447-4E6E-8401-6B6E56035699}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4FAAC8-0532-4D96-8246-2F99092625D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="557" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="笔记" sheetId="8" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="110">
   <si>
     <t>insert into testmysam value(4); #等待</t>
   </si>
@@ -464,6 +464,15 @@
       </rPr>
       <t>// 解决了幻读问题。</t>
     </r>
+  </si>
+  <si>
+    <t>注意点</t>
+  </si>
+  <si>
+    <t>事务依赖于锁来实现的。</t>
+  </si>
+  <si>
+    <t>锁是依赖于索引来实现的。</t>
   </si>
 </sst>
 </file>
@@ -525,7 +534,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -535,6 +544,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,7 +671,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -677,6 +692,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -695,9 +713,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1140,10 +1158,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6576981-1F06-4FF4-B8E4-3BC0F192BE95}">
-  <dimension ref="A1:T86"/>
+  <dimension ref="A1:T90"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="K91" sqref="K91"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1619,11 +1637,11 @@
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="C80" s="22" t="s">
+      <c r="C80" s="16" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="81" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:12" x14ac:dyDescent="0.45">
       <c r="D81" t="s">
         <v>74</v>
       </c>
@@ -1631,7 +1649,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="82" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:12" x14ac:dyDescent="0.45">
       <c r="D82" t="s">
         <v>73</v>
       </c>
@@ -1642,7 +1660,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:12" x14ac:dyDescent="0.45">
       <c r="D83" t="s">
         <v>75</v>
       </c>
@@ -1653,14 +1671,29 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:12" x14ac:dyDescent="0.45">
       <c r="D84" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="86" spans="4:12" x14ac:dyDescent="0.45">
-      <c r="D86" s="23" t="s">
+    <row r="86" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="D86" s="17" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B88" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C89" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C90" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1677,8 +1710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F0269DB-1A2F-484B-9959-BF3E4700C0F4}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1690,106 +1723,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16" t="s">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="16"/>
+      <c r="D16" s="19"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
@@ -1936,20 +1969,20 @@
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="87.265625" customWidth="1"/>
+    <col min="1" max="1" width="95.265625" customWidth="1"/>
     <col min="2" max="2" width="94.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="19"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="15" t="s">
@@ -1999,10 +2032,10 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="16"/>
+      <c r="B9" s="19"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="15" t="s">
@@ -2055,10 +2088,10 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="16"/>
+      <c r="B17" s="19"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="15" t="s">
@@ -2113,10 +2146,10 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="25" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2142,7 +2175,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="18" t="s">
         <v>100</v>
       </c>
       <c r="B29" s="1"/>
@@ -2164,10 +2197,10 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="16"/>
+      <c r="B33" s="19"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="15" t="s">
